--- a/Data/Distribution of fans in Warmian-Masurian Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Warmian-Masurian Voivodship/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\warmia-masuria-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C53BDC6-A9F9-4D1E-9B37-9D159B44570D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B43AEF-FED7-45C9-AA5F-8F136CB45180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Największe miasto bez FC</t>
-  </si>
-  <si>
-    <t>Siematycze (13 000)</t>
   </si>
   <si>
     <t>Granica K.</t>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>Kętrzyn (25 000)</t>
+  </si>
+  <si>
+    <t>Pisz (18 000)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -925,14 +928,14 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -952,7 +955,7 @@
     </row>
     <row r="3" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -971,7 +974,7 @@
     </row>
     <row r="4" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -991,7 +994,7 @@
     </row>
     <row r="5" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1011,7 +1014,7 @@
     </row>
     <row r="6" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1031,7 +1034,7 @@
     </row>
     <row r="7" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1051,7 +1054,7 @@
     </row>
     <row r="8" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1071,7 +1074,7 @@
     </row>
     <row r="9" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="10" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1111,7 +1114,7 @@
     </row>
     <row r="11" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1131,7 +1134,7 @@
     </row>
     <row r="12" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="13" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1171,7 +1174,7 @@
     </row>
     <row r="14" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="15" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2865,14 +2868,14 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4763,14 +4766,14 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4809,7 +4812,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4829,7 +4832,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4869,7 +4872,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4909,7 +4912,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4929,7 +4932,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4949,7 +4952,7 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4969,7 +4972,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4989,7 +4992,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5009,7 +5012,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5029,7 +5032,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5049,7 +5052,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5089,7 +5092,7 @@
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5109,7 +5112,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5129,7 +5132,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5149,7 +5152,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5169,7 +5172,7 @@
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5189,7 +5192,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5209,7 +5212,7 @@
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5229,7 +5232,7 @@
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5249,7 +5252,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6736,14 +6739,14 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8650,7 +8653,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8684,79 +8687,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="14">
         <f>COUNTA('Olimpia E.'!A:A) - 1</f>
         <v>14</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="14">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
+      <c r="D2" s="14" t="s">
+        <v>55</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>56</v>
+      <c r="E2" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <f>COUNTA('Mazur E.'!A:A) - 1</f>
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>57</v>
+      <c r="D3" s="14" t="s">
+        <v>56</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>57</v>
+      <c r="E3" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <f>COUNTA('Stomil O.'!A:A) - 1</f>
         <v>25</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>55</v>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="9">
         <f>COUNTA('Granica K.'!A:A) - 1</f>
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>58</v>
+      <c r="D5" s="9" t="s">
+        <v>57</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>58</v>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
